--- a/IEC/D-IEC/M-IEC/0_MIEC_template.xlsx
+++ b/IEC/D-IEC/M-IEC/0_MIEC_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\EC-generic-model\Database_for_model_validation\M-IEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZ\alaniszeo_git\OSD-ECMTest\IEC\D-IEC\M-IEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F9086A-AD75-4292-95BE-30415F09AD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB878BC-16ED-46C6-BE04-AD51DD27643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{1306219A-737B-4B5D-BCFD-98C34D3C77CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Nomenclature" sheetId="15" r:id="rId1"/>
-    <sheet name="Template" sheetId="6" r:id="rId2"/>
+    <sheet name="Characteristics" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -779,47 +780,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1642,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9F8ACD-3718-4B5D-B13C-8D77AE2D8986}">
-  <dimension ref="B1:Z46"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,89 +1681,89 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="58"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="58"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="62"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1824,16 +1825,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
@@ -1868,7 +1869,7 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>23</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="21" t="s">
         <v>91</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="21" t="s">
         <v>66</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>29</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>72</v>
       </c>
@@ -1938,17 +1939,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="41" t="s">
         <v>95</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>28</v>
       </c>
@@ -1983,388 +1984,6 @@
       <c r="D28" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="18"/>
-    </row>
-    <row r="31" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="K31" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R31" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="S31" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="T31" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="I32" s="3"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="46"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="46"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="46"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="46"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="46"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="46"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="46"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>8</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="46"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>9</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="46"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>10</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="46"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>11</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="46"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="46"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="46"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <v>14</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="46"/>
-    </row>
-    <row r="46" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="7">
-        <v>15</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2377,4 +1996,404 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD47D94-67C8-4F76-AF51-222A29E89533}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="18"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="46"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="46"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="46"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="46"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="46"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="46"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="46"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="46"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="46"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="46"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="46"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="46"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>